--- a/Summary_of_existing_classification/Type_summary.xlsx
+++ b/Summary_of_existing_classification/Type_summary.xlsx
@@ -1330,8 +1330,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E12" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1762,10 +1762,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" ht="14.5" spans="1:9">

--- a/Summary_of_existing_classification/Type_summary.xlsx
+++ b/Summary_of_existing_classification/Type_summary.xlsx
@@ -56,7 +56,7 @@
     <t>%</t>
   </si>
   <si>
-    <t>Other</t>
+    <t>Out of scope</t>
   </si>
   <si>
     <t>A taxonomy of attack mechanisms in the automotive domain</t>
@@ -1330,8 +1330,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E12" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
